--- a/Code/Results/Cases/Case_3_69/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_69/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9034537098705187</v>
+        <v>0.3857638895433411</v>
       </c>
       <c r="C2">
-        <v>0.1395288540869259</v>
+        <v>0.2456461585680572</v>
       </c>
       <c r="D2">
-        <v>0.08038803333468536</v>
+        <v>0.03532519658551081</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3767904385670136</v>
+        <v>0.656177178275037</v>
       </c>
       <c r="G2">
-        <v>0.2740271708464661</v>
+        <v>0.4968777768430641</v>
       </c>
       <c r="H2">
-        <v>0.2584671269451349</v>
+        <v>0.6505686629662151</v>
       </c>
       <c r="I2">
-        <v>0.2915613242580193</v>
+        <v>0.6865406862721279</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7869933178679815</v>
+        <v>0.2386904247886434</v>
       </c>
       <c r="L2">
-        <v>0.2317289782526473</v>
+        <v>0.3064789037709232</v>
       </c>
       <c r="M2">
-        <v>0.2246352160963774</v>
+        <v>0.1544800639941748</v>
       </c>
       <c r="N2">
-        <v>0.773775326952066</v>
+        <v>1.575523951498907</v>
       </c>
       <c r="O2">
-        <v>1.070584343955275</v>
+        <v>2.258301104511304</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7858188061984492</v>
+        <v>0.3510826730699819</v>
       </c>
       <c r="C3">
-        <v>0.1392191645758629</v>
+        <v>0.2457982360109447</v>
       </c>
       <c r="D3">
-        <v>0.07149813563170682</v>
+        <v>0.03232736537780312</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3602256054525981</v>
+        <v>0.6565606207293584</v>
       </c>
       <c r="G3">
-        <v>0.2661428676349544</v>
+        <v>0.4987207489945646</v>
       </c>
       <c r="H3">
-        <v>0.2594477679223246</v>
+        <v>0.6544828752992373</v>
       </c>
       <c r="I3">
-        <v>0.2943291616014214</v>
+        <v>0.6917641179782628</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6905242692535722</v>
+        <v>0.2081841917142953</v>
       </c>
       <c r="L3">
-        <v>0.211973104392392</v>
+        <v>0.3030303267731966</v>
       </c>
       <c r="M3">
-        <v>0.1968233977385445</v>
+        <v>0.1471017826123138</v>
       </c>
       <c r="N3">
-        <v>0.8057545365643524</v>
+        <v>1.58986747144669</v>
       </c>
       <c r="O3">
-        <v>1.055628049270894</v>
+        <v>2.270186562251908</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7136323644608638</v>
+        <v>0.3298432350865994</v>
       </c>
       <c r="C4">
-        <v>0.139066619751933</v>
+        <v>0.2459160462763599</v>
       </c>
       <c r="D4">
-        <v>0.06602131380167009</v>
+        <v>0.03047087156567585</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3506858324301305</v>
+        <v>0.657152328299226</v>
       </c>
       <c r="G4">
-        <v>0.2618552092360247</v>
+        <v>0.5001433573396667</v>
       </c>
       <c r="H4">
-        <v>0.2604144170941112</v>
+        <v>0.6571249126894685</v>
       </c>
       <c r="I4">
-        <v>0.2965371590548109</v>
+        <v>0.6952742235071447</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6311850255402334</v>
+        <v>0.189384357647512</v>
       </c>
       <c r="L4">
-        <v>0.2000967070540796</v>
+        <v>0.30106716649383</v>
       </c>
       <c r="M4">
-        <v>0.1798343267430766</v>
+        <v>0.1426308017828077</v>
       </c>
       <c r="N4">
-        <v>0.8262634687954531</v>
+        <v>1.599145227354931</v>
       </c>
       <c r="O4">
-        <v>1.048373259360986</v>
+        <v>2.278593289160312</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6842198285894767</v>
+        <v>0.3212024744390476</v>
       </c>
       <c r="C5">
-        <v>0.1390138872435074</v>
+        <v>0.2459702305989673</v>
       </c>
       <c r="D5">
-        <v>0.0637844820532365</v>
+        <v>0.02971039415960774</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3469503935019063</v>
+        <v>0.6574831483520356</v>
       </c>
       <c r="G5">
-        <v>0.2602412501636877</v>
+        <v>0.5007962899119462</v>
       </c>
       <c r="H5">
-        <v>0.2608974642911477</v>
+        <v>0.6582616671532691</v>
       </c>
       <c r="I5">
-        <v>0.2975609428164248</v>
+        <v>0.6967808442103696</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6069724693253562</v>
+        <v>0.1817064559781159</v>
       </c>
       <c r="L5">
-        <v>0.195317452402314</v>
+        <v>0.3003060619736289</v>
       </c>
       <c r="M5">
-        <v>0.1729308410642112</v>
+        <v>0.1408239037698955</v>
       </c>
       <c r="N5">
-        <v>0.8348363151066263</v>
+        <v>1.603044424029216</v>
       </c>
       <c r="O5">
-        <v>1.045884086438576</v>
+        <v>2.282298194979816</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6793359589318015</v>
+        <v>0.3197685768577685</v>
       </c>
       <c r="C6">
-        <v>0.1390056999786466</v>
+        <v>0.2459796017902605</v>
       </c>
       <c r="D6">
-        <v>0.06341274674819886</v>
+        <v>0.02958388046734228</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3463391248030305</v>
+        <v>0.6575435012260087</v>
       </c>
       <c r="G6">
-        <v>0.259981137705239</v>
+        <v>0.5009091313316318</v>
       </c>
       <c r="H6">
-        <v>0.2609829849290435</v>
+        <v>0.6584540568066686</v>
       </c>
       <c r="I6">
-        <v>0.2977383206875572</v>
+        <v>0.6970356228957435</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6029499748028115</v>
+        <v>0.1804305454152626</v>
       </c>
       <c r="L6">
-        <v>0.1945274180606162</v>
+        <v>0.3001820336279835</v>
       </c>
       <c r="M6">
-        <v>0.1717856469444037</v>
+        <v>0.1405247838489529</v>
       </c>
       <c r="N6">
-        <v>0.8362727080004078</v>
+        <v>1.603699037550344</v>
       </c>
       <c r="O6">
-        <v>1.045498475057414</v>
+        <v>2.282930255181512</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7132356887715616</v>
+        <v>0.3297266432515187</v>
       </c>
       <c r="C7">
-        <v>0.1390658704286807</v>
+        <v>0.245916751978168</v>
       </c>
       <c r="D7">
-        <v>0.06599116774289371</v>
+        <v>0.03046063141226796</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3506348476986503</v>
+        <v>0.6571564265429686</v>
       </c>
       <c r="G7">
-        <v>0.2618329106635002</v>
+        <v>0.5001518665602305</v>
       </c>
       <c r="H7">
-        <v>0.2604205740290482</v>
+        <v>0.6571399998958967</v>
       </c>
       <c r="I7">
-        <v>0.2965504690654797</v>
+        <v>0.6952942336143089</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6308586191238703</v>
+        <v>0.1892808782022826</v>
       </c>
       <c r="L7">
-        <v>0.2000320118202907</v>
+        <v>0.3010567443319729</v>
       </c>
       <c r="M7">
-        <v>0.1797411471306809</v>
+        <v>0.1426063721386051</v>
       </c>
       <c r="N7">
-        <v>0.8263782191490563</v>
+        <v>1.599197333667973</v>
       </c>
       <c r="O7">
-        <v>1.048337820668337</v>
+        <v>2.278642124463119</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8628804555094689</v>
+        <v>0.3737947826522543</v>
       </c>
       <c r="C8">
-        <v>0.1394142511036343</v>
+        <v>0.2456935423521394</v>
       </c>
       <c r="D8">
-        <v>0.07732639025581989</v>
+        <v>0.03429484684166795</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3709438427023812</v>
+        <v>0.6562355074462261</v>
       </c>
       <c r="G8">
-        <v>0.2711902274705267</v>
+        <v>0.4974528503237181</v>
       </c>
       <c r="H8">
-        <v>0.2587280360880726</v>
+        <v>0.6518687905962679</v>
       </c>
       <c r="I8">
-        <v>0.2924077549694104</v>
+        <v>0.6882788940730435</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7537501778025302</v>
+        <v>0.2281864663283244</v>
       </c>
       <c r="L8">
-        <v>0.2248624193219655</v>
+        <v>0.305257874461546</v>
       </c>
       <c r="M8">
-        <v>0.2150261143323178</v>
+        <v>0.1519238083440264</v>
       </c>
       <c r="N8">
-        <v>0.7846177687601656</v>
+        <v>1.580371921826565</v>
       </c>
       <c r="O8">
-        <v>1.065016286676951</v>
+        <v>2.262169170095291</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.15698914169792</v>
+        <v>0.4606236484141562</v>
       </c>
       <c r="C9">
-        <v>0.1403973177732851</v>
+        <v>0.2454483568069605</v>
       </c>
       <c r="D9">
-        <v>0.09942672571789757</v>
+        <v>0.04168702330932206</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4160894415170588</v>
+        <v>0.6572525167273184</v>
       </c>
       <c r="G9">
-        <v>0.2942061542579353</v>
+        <v>0.4944683133314882</v>
       </c>
       <c r="H9">
-        <v>0.258420857622724</v>
+        <v>0.6434224348847977</v>
       </c>
       <c r="I9">
-        <v>0.2885004743128157</v>
+        <v>0.6769227104199871</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9941171628067593</v>
+        <v>0.3039149383090773</v>
       </c>
       <c r="L9">
-        <v>0.275728177160687</v>
+        <v>0.3147165920597672</v>
       </c>
       <c r="M9">
-        <v>0.2850263529117782</v>
+        <v>0.170660401068524</v>
       </c>
       <c r="N9">
-        <v>0.7098600149340033</v>
+        <v>1.54718778430818</v>
       </c>
       <c r="O9">
-        <v>1.113859358866364</v>
+        <v>2.238656396951868</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.37396504902199</v>
+        <v>0.5246405364461282</v>
       </c>
       <c r="C10">
-        <v>0.1413050388018533</v>
+        <v>0.2453838375083137</v>
       </c>
       <c r="D10">
-        <v>0.115613211058232</v>
+        <v>0.04703961062465112</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4529567350725756</v>
+        <v>0.6597164846061148</v>
       </c>
       <c r="G10">
-        <v>0.3143623614095006</v>
+        <v>0.4936822501624079</v>
       </c>
       <c r="H10">
-        <v>0.2602052118007165</v>
+        <v>0.6383648404366085</v>
       </c>
       <c r="I10">
-        <v>0.2884634430267035</v>
+        <v>0.6700397443168669</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.170682473643524</v>
+        <v>0.3591880048458336</v>
       </c>
       <c r="L10">
-        <v>0.3146594137748764</v>
+        <v>0.3224058149817068</v>
       </c>
       <c r="M10">
-        <v>0.3371156544978717</v>
+        <v>0.1847038193304513</v>
       </c>
       <c r="N10">
-        <v>0.6595754187702507</v>
+        <v>1.525078010421343</v>
       </c>
       <c r="O10">
-        <v>1.160798275736298</v>
+        <v>2.226730387214246</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.47298451514115</v>
+        <v>0.5538066678542748</v>
       </c>
       <c r="C11">
-        <v>0.1417589571470899</v>
+        <v>0.245379226032135</v>
       </c>
       <c r="D11">
-        <v>0.1229722831403848</v>
+        <v>0.04945737615850021</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4706378529145212</v>
+        <v>0.661209370159284</v>
       </c>
       <c r="G11">
-        <v>0.3243304349874734</v>
+        <v>0.4936300350722718</v>
       </c>
       <c r="H11">
-        <v>0.26149398063977</v>
+        <v>0.6363123292515382</v>
       </c>
       <c r="I11">
-        <v>0.2891230055415086</v>
+        <v>0.6672249552827658</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.251082572675557</v>
+        <v>0.3842500136080389</v>
       </c>
       <c r="L11">
-        <v>0.3327638773196071</v>
+        <v>0.3260637107225506</v>
       </c>
       <c r="M11">
-        <v>0.3609953880338921</v>
+        <v>0.1911516501066188</v>
       </c>
       <c r="N11">
-        <v>0.6377746410885727</v>
+        <v>1.515511729439851</v>
       </c>
       <c r="O11">
-        <v>1.184835714605811</v>
+        <v>2.222464345076332</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.510535987205003</v>
+        <v>0.5648569286809106</v>
       </c>
       <c r="C12">
-        <v>0.1419368019364526</v>
+        <v>0.2453810063128117</v>
       </c>
       <c r="D12">
-        <v>0.1257588882662333</v>
+        <v>0.05037042324325114</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4774733459258869</v>
+        <v>0.6618280913665444</v>
       </c>
       <c r="G12">
-        <v>0.3282281749086451</v>
+        <v>0.4936541566674464</v>
       </c>
       <c r="H12">
-        <v>0.2620541770151874</v>
+        <v>0.6355707126574544</v>
       </c>
       <c r="I12">
-        <v>0.2894754068459342</v>
+        <v>0.6662044995439516</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.281546455840612</v>
+        <v>0.3937281013653831</v>
       </c>
       <c r="L12">
-        <v>0.3396810318347718</v>
+        <v>0.3274717813747685</v>
       </c>
       <c r="M12">
-        <v>0.3700678742706884</v>
+        <v>0.1936016861448664</v>
       </c>
       <c r="N12">
-        <v>0.6296797333048048</v>
+        <v>1.511959863484382</v>
       </c>
       <c r="O12">
-        <v>1.1943490163994</v>
+        <v>2.221015398761665</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.50244600405486</v>
+        <v>0.5624768162067539</v>
       </c>
       <c r="C13">
-        <v>0.1418982339400472</v>
+        <v>0.2453804665424286</v>
       </c>
       <c r="D13">
-        <v>0.1251587399870289</v>
+        <v>0.05017389443662523</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4759948204147548</v>
+        <v>0.6616924653612557</v>
       </c>
       <c r="G13">
-        <v>0.3273831194596539</v>
+        <v>0.4936470097237589</v>
       </c>
       <c r="H13">
-        <v>0.2619302600686382</v>
+        <v>0.6357288497165285</v>
       </c>
       <c r="I13">
-        <v>0.289394857351855</v>
+        <v>0.6664222524713637</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.274984597195385</v>
+        <v>0.3916873838431343</v>
       </c>
       <c r="L13">
-        <v>0.338188491563173</v>
+        <v>0.3271675111768246</v>
       </c>
       <c r="M13">
-        <v>0.3681125745319278</v>
+        <v>0.1930736567956757</v>
       </c>
       <c r="N13">
-        <v>0.631415873681604</v>
+        <v>1.512721678120371</v>
       </c>
       <c r="O13">
-        <v>1.192281474572951</v>
+        <v>2.221320052435345</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.476072739470084</v>
+        <v>0.5547156697753337</v>
       </c>
       <c r="C14">
-        <v>0.1417734688053045</v>
+        <v>0.2453793019951647</v>
       </c>
       <c r="D14">
-        <v>0.1232015382153975</v>
+        <v>0.04953254360005133</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4711973520970361</v>
+        <v>0.6612592031139854</v>
       </c>
       <c r="G14">
-        <v>0.3246485899688025</v>
+        <v>0.4936311399650464</v>
       </c>
       <c r="H14">
-        <v>0.2615386008353369</v>
+        <v>0.6362506024217396</v>
       </c>
       <c r="I14">
-        <v>0.2891499089561123</v>
+        <v>0.6671400912476173</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.253588451967914</v>
+        <v>0.3850300323432236</v>
       </c>
       <c r="L14">
-        <v>0.3333316978452956</v>
+        <v>0.326179095110021</v>
       </c>
       <c r="M14">
-        <v>0.3617411712073206</v>
+        <v>0.1913530489700364</v>
       </c>
       <c r="N14">
-        <v>0.6371054136731971</v>
+        <v>1.515218098864558</v>
       </c>
       <c r="O14">
-        <v>1.185609998771696</v>
+        <v>2.22234180326106</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.459925801876437</v>
+        <v>0.5499624616954577</v>
       </c>
       <c r="C15">
-        <v>0.1416978241180971</v>
+        <v>0.2453790470233628</v>
       </c>
       <c r="D15">
-        <v>0.1220026956634115</v>
+        <v>0.04913936980598521</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4682772822936982</v>
+        <v>0.6610007685477655</v>
       </c>
       <c r="G15">
-        <v>0.3229898860827731</v>
+        <v>0.4936271350867969</v>
       </c>
       <c r="H15">
-        <v>0.2613082059041147</v>
+        <v>0.6365748284098771</v>
       </c>
       <c r="I15">
-        <v>0.2890134020562343</v>
+        <v>0.6675857051360339</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.240485259042913</v>
+        <v>0.3809505871797683</v>
       </c>
       <c r="L15">
-        <v>0.3303649087641958</v>
+        <v>0.3255766414354611</v>
       </c>
       <c r="M15">
-        <v>0.3578424777442777</v>
+        <v>0.1903002138675447</v>
       </c>
       <c r="N15">
-        <v>0.6406115204873153</v>
+        <v>1.516756432639625</v>
       </c>
       <c r="O15">
-        <v>1.181577790804852</v>
+        <v>2.222989334626021</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.3675010521346</v>
+        <v>0.5227352953753268</v>
       </c>
       <c r="C16">
-        <v>0.1412762040917883</v>
+        <v>0.2453846340440862</v>
       </c>
       <c r="D16">
-        <v>0.1151322346807149</v>
+        <v>0.04688125524005216</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4518203174049447</v>
+        <v>0.6596263986023772</v>
       </c>
       <c r="G16">
-        <v>0.3137276881815438</v>
+        <v>0.4936918058788393</v>
       </c>
       <c r="H16">
-        <v>0.2601308877546487</v>
+        <v>0.6385039657498055</v>
       </c>
       <c r="I16">
-        <v>0.2884344028689227</v>
+        <v>0.6702300588195804</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.165430299700773</v>
+        <v>0.3575484458680194</v>
       </c>
       <c r="L16">
-        <v>0.3134845748319748</v>
+        <v>0.3221699739533079</v>
       </c>
       <c r="M16">
-        <v>0.3355590375381254</v>
+        <v>0.18428362017994</v>
       </c>
       <c r="N16">
-        <v>0.6610222789879376</v>
+        <v>1.525713080084198</v>
       </c>
       <c r="O16">
-        <v>1.159283483331507</v>
+        <v>2.227032493468613</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.310888979019296</v>
+        <v>0.5060432010360216</v>
       </c>
       <c r="C17">
-        <v>0.1410280940357822</v>
+        <v>0.2453943756656827</v>
       </c>
       <c r="D17">
-        <v>0.1109166863671902</v>
+        <v>0.04549155218163037</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4419639515943317</v>
+        <v>0.6588784799651251</v>
       </c>
       <c r="G17">
-        <v>0.3082559187612901</v>
+        <v>0.4938096795173905</v>
       </c>
       <c r="H17">
-        <v>0.2595333029709934</v>
+        <v>0.63975095410661</v>
       </c>
       <c r="I17">
-        <v>0.2882561829919901</v>
+        <v>0.6719332689371242</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.119411509734277</v>
+        <v>0.3431705921005062</v>
       </c>
       <c r="L17">
-        <v>0.3032333040306128</v>
+        <v>0.3201210051851007</v>
       </c>
       <c r="M17">
-        <v>0.3219382834448723</v>
+        <v>0.1806077368984376</v>
       </c>
       <c r="N17">
-        <v>0.6738229490305336</v>
+        <v>1.531333587606861</v>
       </c>
       <c r="O17">
-        <v>1.146311471018677</v>
+        <v>2.22980960527633</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.278356354459476</v>
+        <v>0.4964465843158052</v>
       </c>
       <c r="C18">
-        <v>0.1408892419099885</v>
+        <v>0.2454023091427189</v>
       </c>
       <c r="D18">
-        <v>0.1084915841207703</v>
+        <v>0.04469061969328436</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4363799057652216</v>
+        <v>0.6584833185656151</v>
       </c>
       <c r="G18">
-        <v>0.3051833844258169</v>
+        <v>0.4939062211773404</v>
       </c>
       <c r="H18">
-        <v>0.2592342657881233</v>
+        <v>0.6404915559483939</v>
       </c>
       <c r="I18">
-        <v>0.2882170041208703</v>
+        <v>0.6729426850802831</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.092949791375815</v>
+        <v>0.3348931475315169</v>
       </c>
       <c r="L18">
-        <v>0.2973738773365397</v>
+        <v>0.3189575617384577</v>
       </c>
       <c r="M18">
-        <v>0.3141211015982464</v>
+        <v>0.1784990675717779</v>
       </c>
       <c r="N18">
-        <v>0.6812862534308781</v>
+        <v>1.534612623844739</v>
       </c>
       <c r="O18">
-        <v>1.139101444775847</v>
+        <v>2.231516042624406</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.267346092279325</v>
+        <v>0.4931980840848667</v>
       </c>
       <c r="C19">
-        <v>0.1408428891845048</v>
+        <v>0.2454053964651166</v>
       </c>
       <c r="D19">
-        <v>0.1076703976308266</v>
+        <v>0.0444191621100245</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4345035838773796</v>
+        <v>0.6583555416526394</v>
       </c>
       <c r="G19">
-        <v>0.3041556624584771</v>
+        <v>0.4939438458278431</v>
       </c>
       <c r="H19">
-        <v>0.2591405849144266</v>
+        <v>0.6407463264072177</v>
       </c>
       <c r="I19">
-        <v>0.2882144564991336</v>
+        <v>0.6732895711215008</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.083991327393534</v>
+        <v>0.3320892445048003</v>
       </c>
       <c r="L19">
-        <v>0.2953961642536456</v>
+        <v>0.3185662311816344</v>
       </c>
       <c r="M19">
-        <v>0.3114771808788745</v>
+        <v>0.1777860753200216</v>
       </c>
       <c r="N19">
-        <v>0.6838303130210779</v>
+        <v>1.535730796237797</v>
       </c>
       <c r="O19">
-        <v>1.136702652824553</v>
+        <v>2.232112559080093</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.316912347783756</v>
+        <v>0.5078196699602984</v>
       </c>
       <c r="C20">
-        <v>0.1410541064580642</v>
+        <v>0.2453930976946097</v>
       </c>
       <c r="D20">
-        <v>0.111365479726615</v>
+        <v>0.04563965558607208</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.443004308698761</v>
+        <v>0.6589544732771344</v>
       </c>
       <c r="G20">
-        <v>0.3088306108753898</v>
+        <v>0.493794156909054</v>
       </c>
       <c r="H20">
-        <v>0.2595922677037237</v>
+        <v>0.6396157921506926</v>
       </c>
       <c r="I20">
-        <v>0.288268562539546</v>
+        <v>0.6717488780345846</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.124309509721911</v>
+        <v>0.3447019384436487</v>
       </c>
       <c r="L20">
-        <v>0.3043207242363195</v>
+        <v>0.3203375625783309</v>
       </c>
       <c r="M20">
-        <v>0.3233864413992578</v>
+        <v>0.1809984623751077</v>
       </c>
       <c r="N20">
-        <v>0.6724498305684889</v>
+        <v>1.530730486397026</v>
       </c>
       <c r="O20">
-        <v>1.147666197443797</v>
+        <v>2.229502685138087</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.483817636492205</v>
+        <v>0.5569951582327519</v>
       </c>
       <c r="C21">
-        <v>0.1418099531871491</v>
+        <v>0.2453795485857242</v>
       </c>
       <c r="D21">
-        <v>0.1237764148898037</v>
+        <v>0.04972099229392768</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.472602608587863</v>
+        <v>0.6613850143168989</v>
       </c>
       <c r="G21">
-        <v>0.3254483807839677</v>
+        <v>0.4936346101609956</v>
       </c>
       <c r="H21">
-        <v>0.2616516526073127</v>
+        <v>0.6360963846977796</v>
       </c>
       <c r="I21">
-        <v>0.2892190263770296</v>
+        <v>0.6669280115925176</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.259872471647043</v>
+        <v>0.3869857975360844</v>
       </c>
       <c r="L21">
-        <v>0.3347565513882671</v>
+        <v>0.326468796092712</v>
       </c>
       <c r="M21">
-        <v>0.363611772274929</v>
+        <v>0.1918582069804486</v>
       </c>
       <c r="N21">
-        <v>0.6354298493669983</v>
+        <v>1.514482921489893</v>
       </c>
       <c r="O21">
-        <v>1.187558218241662</v>
+        <v>2.222037172605212</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.593225032363847</v>
+        <v>0.5891669529569015</v>
       </c>
       <c r="C22">
-        <v>0.142338691317498</v>
+        <v>0.2453912347038028</v>
       </c>
       <c r="D22">
-        <v>0.1318872524592649</v>
+        <v>0.05237374227166924</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4927676821202169</v>
+        <v>0.663284711046046</v>
       </c>
       <c r="G22">
-        <v>0.3370303860386912</v>
+        <v>0.4937861782016313</v>
       </c>
       <c r="H22">
-        <v>0.2634200300702787</v>
+        <v>0.6340038659160285</v>
       </c>
       <c r="I22">
-        <v>0.2904411747164204</v>
+        <v>0.6640421588382885</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.348579685952444</v>
+        <v>0.4145484915732425</v>
       </c>
       <c r="L22">
-        <v>0.3550082891403434</v>
+        <v>0.3306093688797063</v>
       </c>
       <c r="M22">
-        <v>0.3900764203981737</v>
+        <v>0.1990044624615805</v>
       </c>
       <c r="N22">
-        <v>0.6121741849287545</v>
+        <v>1.504276155401893</v>
       </c>
       <c r="O22">
-        <v>1.21603719844839</v>
+        <v>2.218128501761157</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.53479919460878</v>
+        <v>0.571993501283373</v>
       </c>
       <c r="C23">
-        <v>0.1420532921278408</v>
+        <v>0.2453831282208867</v>
       </c>
       <c r="D23">
-        <v>0.1275582144778724</v>
+        <v>0.05095927301439929</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4819269264471373</v>
+        <v>0.6622423649587503</v>
       </c>
       <c r="G23">
-        <v>0.3307800322045864</v>
+        <v>0.4936818799491647</v>
       </c>
       <c r="H23">
-        <v>0.2624363276418649</v>
+        <v>0.6351017079847168</v>
       </c>
       <c r="I23">
-        <v>0.2897320510311907</v>
+        <v>0.6655581713466923</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.301222685210746</v>
+        <v>0.3998445597601972</v>
       </c>
       <c r="L23">
-        <v>0.3441649903409569</v>
+        <v>0.3283872914720121</v>
       </c>
       <c r="M23">
-        <v>0.3759345841512101</v>
+        <v>0.1951859607723279</v>
       </c>
       <c r="N23">
-        <v>0.6244981336581965</v>
+        <v>1.509686007125332</v>
       </c>
       <c r="O23">
-        <v>1.200608610863952</v>
+        <v>2.220125892569229</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.314189138591445</v>
+        <v>0.5070165286456643</v>
       </c>
       <c r="C24">
-        <v>0.1410423344429503</v>
+        <v>0.2453936681977211</v>
       </c>
       <c r="D24">
-        <v>0.1111625850433171</v>
+        <v>0.04557270418114001</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4425337069395638</v>
+        <v>0.6589200082112114</v>
       </c>
       <c r="G24">
-        <v>0.3085705649979644</v>
+        <v>0.4938010850492844</v>
       </c>
       <c r="H24">
-        <v>0.2595654713384832</v>
+        <v>0.6396768250687117</v>
       </c>
       <c r="I24">
-        <v>0.2882627690394735</v>
+        <v>0.6718321470325535</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.122095139697024</v>
+        <v>0.3440096523068803</v>
       </c>
       <c r="L24">
-        <v>0.3038289954934612</v>
+        <v>0.3202396116955413</v>
       </c>
       <c r="M24">
-        <v>0.3227316871630137</v>
+        <v>0.1808218009067843</v>
       </c>
       <c r="N24">
-        <v>0.673070293860091</v>
+        <v>1.531002999772902</v>
       </c>
       <c r="O24">
-        <v>1.147052955779984</v>
+        <v>2.229641101582217</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.077305411856685</v>
+        <v>0.4370928946807453</v>
       </c>
       <c r="C25">
-        <v>0.1400990149198975</v>
+        <v>0.2454942563075306</v>
       </c>
       <c r="D25">
-        <v>0.0934589512391355</v>
+        <v>0.03970093190125823</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4032611611367543</v>
+        <v>0.6566756020651852</v>
       </c>
       <c r="G25">
-        <v>0.2874399364870186</v>
+        <v>0.4950286456136652</v>
       </c>
       <c r="H25">
-        <v>0.2581641040966289</v>
+        <v>0.6455054801584907</v>
       </c>
       <c r="I25">
-        <v>0.2890797062021555</v>
+        <v>0.6797381612890909</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9291236234911651</v>
+        <v>0.2834909661684719</v>
       </c>
       <c r="L25">
-        <v>0.2617113927485235</v>
+        <v>0.3120275302355111</v>
       </c>
       <c r="M25">
-        <v>0.2659862436040328</v>
+        <v>0.1655424708212614</v>
       </c>
       <c r="N25">
-        <v>0.7292910917335362</v>
+        <v>1.555765892145253</v>
       </c>
       <c r="O25">
-        <v>1.098796622778949</v>
+        <v>2.244077176522623</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_69/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_69/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3857638895433411</v>
+        <v>0.9034537098705187</v>
       </c>
       <c r="C2">
-        <v>0.2456461585680572</v>
+        <v>0.1395288540871675</v>
       </c>
       <c r="D2">
-        <v>0.03532519658551081</v>
+        <v>0.08038803333480615</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.656177178275037</v>
+        <v>0.3767904385670278</v>
       </c>
       <c r="G2">
-        <v>0.4968777768430641</v>
+        <v>0.274027170846459</v>
       </c>
       <c r="H2">
-        <v>0.6505686629662151</v>
+        <v>0.2584671269451349</v>
       </c>
       <c r="I2">
-        <v>0.6865406862721279</v>
+        <v>0.2915613242580193</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2386904247886434</v>
+        <v>0.7869933178679958</v>
       </c>
       <c r="L2">
-        <v>0.3064789037709232</v>
+        <v>0.2317289782526046</v>
       </c>
       <c r="M2">
-        <v>0.1544800639941748</v>
+        <v>0.224635216096388</v>
       </c>
       <c r="N2">
-        <v>1.575523951498907</v>
+        <v>0.7737753269520695</v>
       </c>
       <c r="O2">
-        <v>2.258301104511304</v>
+        <v>1.070584343955289</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3510826730699819</v>
+        <v>0.7858188061983071</v>
       </c>
       <c r="C3">
-        <v>0.2457982360109447</v>
+        <v>0.1392191645758025</v>
       </c>
       <c r="D3">
-        <v>0.03232736537780312</v>
+        <v>0.07149813563167129</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6565606207293584</v>
+        <v>0.3602256054525839</v>
       </c>
       <c r="G3">
-        <v>0.4987207489945646</v>
+        <v>0.2661428676348905</v>
       </c>
       <c r="H3">
-        <v>0.6544828752992373</v>
+        <v>0.2594477679222109</v>
       </c>
       <c r="I3">
-        <v>0.6917641179782628</v>
+        <v>0.2943291616014179</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2081841917142953</v>
+        <v>0.6905242692535296</v>
       </c>
       <c r="L3">
-        <v>0.3030303267731966</v>
+        <v>0.211973104392392</v>
       </c>
       <c r="M3">
-        <v>0.1471017826123138</v>
+        <v>0.1968233977385303</v>
       </c>
       <c r="N3">
-        <v>1.58986747144669</v>
+        <v>0.8057545365643399</v>
       </c>
       <c r="O3">
-        <v>2.270186562251908</v>
+        <v>1.055628049270808</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3298432350865994</v>
+        <v>0.7136323644608353</v>
       </c>
       <c r="C4">
-        <v>0.2459160462763599</v>
+        <v>0.1390666197521711</v>
       </c>
       <c r="D4">
-        <v>0.03047087156567585</v>
+        <v>0.06602131380188325</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.657152328299226</v>
+        <v>0.3506858324301163</v>
       </c>
       <c r="G4">
-        <v>0.5001433573396667</v>
+        <v>0.2618552092359963</v>
       </c>
       <c r="H4">
-        <v>0.6571249126894685</v>
+        <v>0.2604144170942178</v>
       </c>
       <c r="I4">
-        <v>0.6952742235071447</v>
+        <v>0.2965371590548038</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.189384357647512</v>
+        <v>0.6311850255402902</v>
       </c>
       <c r="L4">
-        <v>0.30106716649383</v>
+        <v>0.2000967070540867</v>
       </c>
       <c r="M4">
-        <v>0.1426308017828077</v>
+        <v>0.1798343267430837</v>
       </c>
       <c r="N4">
-        <v>1.599145227354931</v>
+        <v>0.8262634687953803</v>
       </c>
       <c r="O4">
-        <v>2.278593289160312</v>
+        <v>1.048373259361043</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3212024744390476</v>
+        <v>0.684219828589562</v>
       </c>
       <c r="C5">
-        <v>0.2459702305989673</v>
+        <v>0.1390138872435109</v>
       </c>
       <c r="D5">
-        <v>0.02971039415960774</v>
+        <v>0.06378448205320808</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6574831483520356</v>
+        <v>0.3469503935019347</v>
       </c>
       <c r="G5">
-        <v>0.5007962899119462</v>
+        <v>0.2602412501637446</v>
       </c>
       <c r="H5">
-        <v>0.6582616671532691</v>
+        <v>0.2608974642911548</v>
       </c>
       <c r="I5">
-        <v>0.6967808442103696</v>
+        <v>0.2975609428164248</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1817064559781159</v>
+        <v>0.6069724693253562</v>
       </c>
       <c r="L5">
-        <v>0.3003060619736289</v>
+        <v>0.1953174524023069</v>
       </c>
       <c r="M5">
-        <v>0.1408239037698955</v>
+        <v>0.1729308410641863</v>
       </c>
       <c r="N5">
-        <v>1.603044424029216</v>
+        <v>0.834836315106628</v>
       </c>
       <c r="O5">
-        <v>2.282298194979816</v>
+        <v>1.045884086438591</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3197685768577685</v>
+        <v>0.6793359589317731</v>
       </c>
       <c r="C6">
-        <v>0.2459796017902605</v>
+        <v>0.139005699978636</v>
       </c>
       <c r="D6">
-        <v>0.02958388046734228</v>
+        <v>0.06341274674818465</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6575435012260087</v>
+        <v>0.3463391248030447</v>
       </c>
       <c r="G6">
-        <v>0.5009091313316318</v>
+        <v>0.2599811377052319</v>
       </c>
       <c r="H6">
-        <v>0.6584540568066686</v>
+        <v>0.2609829849290293</v>
       </c>
       <c r="I6">
-        <v>0.6970356228957435</v>
+        <v>0.2977383206875501</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1804305454152626</v>
+        <v>0.6029499748028115</v>
       </c>
       <c r="L6">
-        <v>0.3001820336279835</v>
+        <v>0.194527418060737</v>
       </c>
       <c r="M6">
-        <v>0.1405247838489529</v>
+        <v>0.1717856469444108</v>
       </c>
       <c r="N6">
-        <v>1.603699037550344</v>
+        <v>0.8362727080003207</v>
       </c>
       <c r="O6">
-        <v>2.282930255181512</v>
+        <v>1.045498475057386</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3297266432515187</v>
+        <v>0.71323568877159</v>
       </c>
       <c r="C7">
-        <v>0.245916751978168</v>
+        <v>0.1390658704289223</v>
       </c>
       <c r="D7">
-        <v>0.03046063141226796</v>
+        <v>0.06599116774289371</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6571564265429686</v>
+        <v>0.3506348476986361</v>
       </c>
       <c r="G7">
-        <v>0.5001518665602305</v>
+        <v>0.2618329106635002</v>
       </c>
       <c r="H7">
-        <v>0.6571399998958967</v>
+        <v>0.2604205740289274</v>
       </c>
       <c r="I7">
-        <v>0.6952942336143089</v>
+        <v>0.2965504690654832</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1892808782022826</v>
+        <v>0.6308586191236856</v>
       </c>
       <c r="L7">
-        <v>0.3010567443319729</v>
+        <v>0.2000320118203405</v>
       </c>
       <c r="M7">
-        <v>0.1426063721386051</v>
+        <v>0.1797411471307058</v>
       </c>
       <c r="N7">
-        <v>1.599197333667973</v>
+        <v>0.826378219149106</v>
       </c>
       <c r="O7">
-        <v>2.278642124463119</v>
+        <v>1.04833782066828</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3737947826522543</v>
+        <v>0.8628804555096679</v>
       </c>
       <c r="C8">
-        <v>0.2456935423521394</v>
+        <v>0.1394142511034033</v>
       </c>
       <c r="D8">
-        <v>0.03429484684166795</v>
+        <v>0.07732639025575594</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6562355074462261</v>
+        <v>0.3709438427023599</v>
       </c>
       <c r="G8">
-        <v>0.4974528503237181</v>
+        <v>0.271190227470484</v>
       </c>
       <c r="H8">
-        <v>0.6518687905962679</v>
+        <v>0.2587280360880584</v>
       </c>
       <c r="I8">
-        <v>0.6882788940730435</v>
+        <v>0.2924077549693962</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2281864663283244</v>
+        <v>0.7537501778025586</v>
       </c>
       <c r="L8">
-        <v>0.305257874461546</v>
+        <v>0.2248624193219229</v>
       </c>
       <c r="M8">
-        <v>0.1519238083440264</v>
+        <v>0.2150261143323071</v>
       </c>
       <c r="N8">
-        <v>1.580371921826565</v>
+        <v>0.7846177687600893</v>
       </c>
       <c r="O8">
-        <v>2.262169170095291</v>
+        <v>1.065016286676908</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4606236484141562</v>
+        <v>1.156989141697949</v>
       </c>
       <c r="C9">
-        <v>0.2454483568069605</v>
+        <v>0.1403973177732709</v>
       </c>
       <c r="D9">
-        <v>0.04168702330932206</v>
+        <v>0.09942672571810363</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6572525167273184</v>
+        <v>0.4160894415170517</v>
       </c>
       <c r="G9">
-        <v>0.4944683133314882</v>
+        <v>0.2942061542580063</v>
       </c>
       <c r="H9">
-        <v>0.6434224348847977</v>
+        <v>0.2584208576227098</v>
       </c>
       <c r="I9">
-        <v>0.6769227104199871</v>
+        <v>0.2885004743128086</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3039149383090773</v>
+        <v>0.9941171628067593</v>
       </c>
       <c r="L9">
-        <v>0.3147165920597672</v>
+        <v>0.2757281771606301</v>
       </c>
       <c r="M9">
-        <v>0.170660401068524</v>
+        <v>0.285026352911764</v>
       </c>
       <c r="N9">
-        <v>1.54718778430818</v>
+        <v>0.7098600149339962</v>
       </c>
       <c r="O9">
-        <v>2.238656396951868</v>
+        <v>1.11385935886635</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5246405364461282</v>
+        <v>1.373965049021848</v>
       </c>
       <c r="C10">
-        <v>0.2453838375083137</v>
+        <v>0.1413050388019244</v>
       </c>
       <c r="D10">
-        <v>0.04703961062465112</v>
+        <v>0.1156132110581041</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6597164846061148</v>
+        <v>0.4529567350725614</v>
       </c>
       <c r="G10">
-        <v>0.4936822501624079</v>
+        <v>0.3143623614094508</v>
       </c>
       <c r="H10">
-        <v>0.6383648404366085</v>
+        <v>0.2602052118007165</v>
       </c>
       <c r="I10">
-        <v>0.6700397443168669</v>
+        <v>0.2884634430266999</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3591880048458336</v>
+        <v>1.170682473643524</v>
       </c>
       <c r="L10">
-        <v>0.3224058149817068</v>
+        <v>0.3146594137749332</v>
       </c>
       <c r="M10">
-        <v>0.1847038193304513</v>
+        <v>0.3371156544978717</v>
       </c>
       <c r="N10">
-        <v>1.525078010421343</v>
+        <v>0.6595754187702436</v>
       </c>
       <c r="O10">
-        <v>2.226730387214246</v>
+        <v>1.160798275736298</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5538066678542748</v>
+        <v>1.472984515141405</v>
       </c>
       <c r="C11">
-        <v>0.245379226032135</v>
+        <v>0.1417589571475517</v>
       </c>
       <c r="D11">
-        <v>0.04945737615850021</v>
+        <v>0.1229722831403848</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.661209370159284</v>
+        <v>0.4706378529145212</v>
       </c>
       <c r="G11">
-        <v>0.4936300350722718</v>
+        <v>0.3243304349874734</v>
       </c>
       <c r="H11">
-        <v>0.6363123292515382</v>
+        <v>0.2614939806397416</v>
       </c>
       <c r="I11">
-        <v>0.6672249552827658</v>
+        <v>0.2891230055415157</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3842500136080389</v>
+        <v>1.251082572675557</v>
       </c>
       <c r="L11">
-        <v>0.3260637107225506</v>
+        <v>0.3327638773195787</v>
       </c>
       <c r="M11">
-        <v>0.1911516501066188</v>
+        <v>0.3609953880338921</v>
       </c>
       <c r="N11">
-        <v>1.515511729439851</v>
+        <v>0.6377746410886171</v>
       </c>
       <c r="O11">
-        <v>2.222464345076332</v>
+        <v>1.184835714605811</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5648569286809106</v>
+        <v>1.510535987204889</v>
       </c>
       <c r="C12">
-        <v>0.2453810063128117</v>
+        <v>0.1419368019364597</v>
       </c>
       <c r="D12">
-        <v>0.05037042324325114</v>
+        <v>0.1257588882663896</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6618280913665444</v>
+        <v>0.477473345925894</v>
       </c>
       <c r="G12">
-        <v>0.4936541566674464</v>
+        <v>0.3282281749085314</v>
       </c>
       <c r="H12">
-        <v>0.6355707126574544</v>
+        <v>0.2620541770150737</v>
       </c>
       <c r="I12">
-        <v>0.6662044995439516</v>
+        <v>0.2894754068459342</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3937281013653831</v>
+        <v>1.281546455840498</v>
       </c>
       <c r="L12">
-        <v>0.3274717813747685</v>
+        <v>0.339681031834786</v>
       </c>
       <c r="M12">
-        <v>0.1936016861448664</v>
+        <v>0.3700678742706671</v>
       </c>
       <c r="N12">
-        <v>1.511959863484382</v>
+        <v>0.6296797333048048</v>
       </c>
       <c r="O12">
-        <v>2.221015398761665</v>
+        <v>1.1943490163994</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5624768162067539</v>
+        <v>1.502446004054974</v>
       </c>
       <c r="C13">
-        <v>0.2453804665424286</v>
+        <v>0.1418982339401467</v>
       </c>
       <c r="D13">
-        <v>0.05017389443662523</v>
+        <v>0.1251587399870004</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6616924653612557</v>
+        <v>0.4759948204147477</v>
       </c>
       <c r="G13">
-        <v>0.4936470097237589</v>
+        <v>0.3273831194597534</v>
       </c>
       <c r="H13">
-        <v>0.6357288497165285</v>
+        <v>0.2619302600686382</v>
       </c>
       <c r="I13">
-        <v>0.6664222524713637</v>
+        <v>0.2893948573518514</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3916873838431343</v>
+        <v>1.27498459719547</v>
       </c>
       <c r="L13">
-        <v>0.3271675111768246</v>
+        <v>0.3381884915632298</v>
       </c>
       <c r="M13">
-        <v>0.1930736567956757</v>
+        <v>0.3681125745319349</v>
       </c>
       <c r="N13">
-        <v>1.512721678120371</v>
+        <v>0.6314158736815862</v>
       </c>
       <c r="O13">
-        <v>2.221320052435345</v>
+        <v>1.192281474572894</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5547156697753337</v>
+        <v>1.476072739470055</v>
       </c>
       <c r="C14">
-        <v>0.2453793019951647</v>
+        <v>0.1417734688055319</v>
       </c>
       <c r="D14">
-        <v>0.04953254360005133</v>
+        <v>0.1232015382153406</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6612592031139854</v>
+        <v>0.4711973520970503</v>
       </c>
       <c r="G14">
-        <v>0.4936311399650464</v>
+        <v>0.3246485899688452</v>
       </c>
       <c r="H14">
-        <v>0.6362506024217396</v>
+        <v>0.2615386008353369</v>
       </c>
       <c r="I14">
-        <v>0.6671400912476173</v>
+        <v>0.2891499089561194</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3850300323432236</v>
+        <v>1.253588451967914</v>
       </c>
       <c r="L14">
-        <v>0.326179095110021</v>
+        <v>0.3333316978453951</v>
       </c>
       <c r="M14">
-        <v>0.1913530489700364</v>
+        <v>0.3617411712072922</v>
       </c>
       <c r="N14">
-        <v>1.515218098864558</v>
+        <v>0.637105413673261</v>
       </c>
       <c r="O14">
-        <v>2.22234180326106</v>
+        <v>1.185609998771696</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5499624616954577</v>
+        <v>1.45992580187621</v>
       </c>
       <c r="C15">
-        <v>0.2453790470233628</v>
+        <v>0.1416978241180971</v>
       </c>
       <c r="D15">
-        <v>0.04913936980598521</v>
+        <v>0.1220026956635252</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6610007685477655</v>
+        <v>0.468277282293684</v>
       </c>
       <c r="G15">
-        <v>0.4936271350867969</v>
+        <v>0.322989886082766</v>
       </c>
       <c r="H15">
-        <v>0.6365748284098771</v>
+        <v>0.2613082059041005</v>
       </c>
       <c r="I15">
-        <v>0.6675857051360339</v>
+        <v>0.2890134020562449</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3809505871797683</v>
+        <v>1.240485259042913</v>
       </c>
       <c r="L15">
-        <v>0.3255766414354611</v>
+        <v>0.330364908764281</v>
       </c>
       <c r="M15">
-        <v>0.1903002138675447</v>
+        <v>0.3578424777442706</v>
       </c>
       <c r="N15">
-        <v>1.516756432639625</v>
+        <v>0.6406115204872478</v>
       </c>
       <c r="O15">
-        <v>2.222989334626021</v>
+        <v>1.18157779080488</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5227352953753268</v>
+        <v>1.367501052134457</v>
       </c>
       <c r="C16">
-        <v>0.2453846340440862</v>
+        <v>0.1412762040914046</v>
       </c>
       <c r="D16">
-        <v>0.04688125524005216</v>
+        <v>0.1151322346809565</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6596263986023772</v>
+        <v>0.4518203174049447</v>
       </c>
       <c r="G16">
-        <v>0.4936918058788393</v>
+        <v>0.3137276881814586</v>
       </c>
       <c r="H16">
-        <v>0.6385039657498055</v>
+        <v>0.2601308877546558</v>
       </c>
       <c r="I16">
-        <v>0.6702300588195804</v>
+        <v>0.2884344028689192</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3575484458680194</v>
+        <v>1.165430299700716</v>
       </c>
       <c r="L16">
-        <v>0.3221699739533079</v>
+        <v>0.3134845748318895</v>
       </c>
       <c r="M16">
-        <v>0.18428362017994</v>
+        <v>0.3355590375381112</v>
       </c>
       <c r="N16">
-        <v>1.525713080084198</v>
+        <v>0.6610222789879199</v>
       </c>
       <c r="O16">
-        <v>2.227032493468613</v>
+        <v>1.159283483331564</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5060432010360216</v>
+        <v>1.310888979019296</v>
       </c>
       <c r="C17">
-        <v>0.2453943756656827</v>
+        <v>0.1410280940360238</v>
       </c>
       <c r="D17">
-        <v>0.04549155218163037</v>
+        <v>0.1109166863673465</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6588784799651251</v>
+        <v>0.4419639515943317</v>
       </c>
       <c r="G17">
-        <v>0.4938096795173905</v>
+        <v>0.3082559187612759</v>
       </c>
       <c r="H17">
-        <v>0.63975095410661</v>
+        <v>0.2595333029709934</v>
       </c>
       <c r="I17">
-        <v>0.6719332689371242</v>
+        <v>0.2882561829919901</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3431705921005062</v>
+        <v>1.119411509734363</v>
       </c>
       <c r="L17">
-        <v>0.3201210051851007</v>
+        <v>0.3032333040306554</v>
       </c>
       <c r="M17">
-        <v>0.1806077368984376</v>
+        <v>0.3219382834448723</v>
       </c>
       <c r="N17">
-        <v>1.531333587606861</v>
+        <v>0.6738229490304679</v>
       </c>
       <c r="O17">
-        <v>2.22980960527633</v>
+        <v>1.14631147101872</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4964465843158052</v>
+        <v>1.278356354459333</v>
       </c>
       <c r="C18">
-        <v>0.2454023091427189</v>
+        <v>0.1408892419099814</v>
       </c>
       <c r="D18">
-        <v>0.04469061969328436</v>
+        <v>0.108491584120884</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6584833185656151</v>
+        <v>0.4363799057652216</v>
       </c>
       <c r="G18">
-        <v>0.4939062211773404</v>
+        <v>0.3051833844258027</v>
       </c>
       <c r="H18">
-        <v>0.6404915559483939</v>
+        <v>0.2592342657881233</v>
       </c>
       <c r="I18">
-        <v>0.6729426850802831</v>
+        <v>0.2882170041208632</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3348931475315169</v>
+        <v>1.092949791375844</v>
       </c>
       <c r="L18">
-        <v>0.3189575617384577</v>
+        <v>0.297373877336554</v>
       </c>
       <c r="M18">
-        <v>0.1784990675717779</v>
+        <v>0.3141211015982464</v>
       </c>
       <c r="N18">
-        <v>1.534612623844739</v>
+        <v>0.6812862534308675</v>
       </c>
       <c r="O18">
-        <v>2.231516042624406</v>
+        <v>1.139101444775875</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4931980840848667</v>
+        <v>1.267346092279439</v>
       </c>
       <c r="C19">
-        <v>0.2454053964651166</v>
+        <v>0.1408428891840501</v>
       </c>
       <c r="D19">
-        <v>0.0444191621100245</v>
+        <v>0.1076703976306277</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6583555416526394</v>
+        <v>0.4345035838773583</v>
       </c>
       <c r="G19">
-        <v>0.4939438458278431</v>
+        <v>0.3041556624583919</v>
       </c>
       <c r="H19">
-        <v>0.6407463264072177</v>
+        <v>0.2591405849144195</v>
       </c>
       <c r="I19">
-        <v>0.6732895711215008</v>
+        <v>0.2882144564991407</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3320892445048003</v>
+        <v>1.083991327393477</v>
       </c>
       <c r="L19">
-        <v>0.3185662311816344</v>
+        <v>0.2953961642537166</v>
       </c>
       <c r="M19">
-        <v>0.1777860753200216</v>
+        <v>0.3114771808788745</v>
       </c>
       <c r="N19">
-        <v>1.535730796237797</v>
+        <v>0.6838303130211152</v>
       </c>
       <c r="O19">
-        <v>2.232112559080093</v>
+        <v>1.136702652824468</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5078196699602984</v>
+        <v>1.316912347783784</v>
       </c>
       <c r="C20">
-        <v>0.2453930976946097</v>
+        <v>0.1410541064580499</v>
       </c>
       <c r="D20">
-        <v>0.04563965558607208</v>
+        <v>0.1113654797264871</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6589544732771344</v>
+        <v>0.4430043086987325</v>
       </c>
       <c r="G20">
-        <v>0.493794156909054</v>
+        <v>0.3088306108753258</v>
       </c>
       <c r="H20">
-        <v>0.6396157921506926</v>
+        <v>0.25959226770361</v>
       </c>
       <c r="I20">
-        <v>0.6717488780345846</v>
+        <v>0.2882685625395425</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3447019384436487</v>
+        <v>1.124309509722053</v>
       </c>
       <c r="L20">
-        <v>0.3203375625783309</v>
+        <v>0.3043207242363337</v>
       </c>
       <c r="M20">
-        <v>0.1809984623751077</v>
+        <v>0.3233864413992507</v>
       </c>
       <c r="N20">
-        <v>1.530730486397026</v>
+        <v>0.6724498305684765</v>
       </c>
       <c r="O20">
-        <v>2.229502685138087</v>
+        <v>1.147666197443812</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5569951582327519</v>
+        <v>1.483817636492205</v>
       </c>
       <c r="C21">
-        <v>0.2453795485857242</v>
+        <v>0.1418099531874475</v>
       </c>
       <c r="D21">
-        <v>0.04972099229392768</v>
+        <v>0.1237764148895479</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6613850143168989</v>
+        <v>0.4726026085878559</v>
       </c>
       <c r="G21">
-        <v>0.4936346101609956</v>
+        <v>0.3254483807839677</v>
       </c>
       <c r="H21">
-        <v>0.6360963846977796</v>
+        <v>0.2616516526074264</v>
       </c>
       <c r="I21">
-        <v>0.6669280115925176</v>
+        <v>0.2892190263770225</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3869857975360844</v>
+        <v>1.259872471647071</v>
       </c>
       <c r="L21">
-        <v>0.326468796092712</v>
+        <v>0.3347565513883097</v>
       </c>
       <c r="M21">
-        <v>0.1918582069804486</v>
+        <v>0.363611772274929</v>
       </c>
       <c r="N21">
-        <v>1.514482921489893</v>
+        <v>0.6354298493669859</v>
       </c>
       <c r="O21">
-        <v>2.222037172605212</v>
+        <v>1.187558218241634</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5891669529569015</v>
+        <v>1.593225032363819</v>
       </c>
       <c r="C22">
-        <v>0.2453912347038028</v>
+        <v>0.1423386913177325</v>
       </c>
       <c r="D22">
-        <v>0.05237374227166924</v>
+        <v>0.1318872524592365</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.663284711046046</v>
+        <v>0.4927676821202311</v>
       </c>
       <c r="G22">
-        <v>0.4937861782016313</v>
+        <v>0.337030386038677</v>
       </c>
       <c r="H22">
-        <v>0.6340038659160285</v>
+        <v>0.2634200300702787</v>
       </c>
       <c r="I22">
-        <v>0.6640421588382885</v>
+        <v>0.2904411747164062</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4145484915732425</v>
+        <v>1.348579685952444</v>
       </c>
       <c r="L22">
-        <v>0.3306093688797063</v>
+        <v>0.3550082891403434</v>
       </c>
       <c r="M22">
-        <v>0.1990044624615805</v>
+        <v>0.3900764203981737</v>
       </c>
       <c r="N22">
-        <v>1.504276155401893</v>
+        <v>0.6121741849287439</v>
       </c>
       <c r="O22">
-        <v>2.218128501761157</v>
+        <v>1.21603719844839</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.571993501283373</v>
+        <v>1.534799194608667</v>
       </c>
       <c r="C23">
-        <v>0.2453831282208867</v>
+        <v>0.1420532921276063</v>
       </c>
       <c r="D23">
-        <v>0.05095927301439929</v>
+        <v>0.127558214477915</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6622423649587503</v>
+        <v>0.4819269264471515</v>
       </c>
       <c r="G23">
-        <v>0.4936818799491647</v>
+        <v>0.3307800322045154</v>
       </c>
       <c r="H23">
-        <v>0.6351017079847168</v>
+        <v>0.2624363276417512</v>
       </c>
       <c r="I23">
-        <v>0.6655581713466923</v>
+        <v>0.2897320510311907</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3998445597601972</v>
+        <v>1.301222685210604</v>
       </c>
       <c r="L23">
-        <v>0.3283872914720121</v>
+        <v>0.3441649903409427</v>
       </c>
       <c r="M23">
-        <v>0.1951859607723279</v>
+        <v>0.3759345841512172</v>
       </c>
       <c r="N23">
-        <v>1.509686007125332</v>
+        <v>0.6244981336581894</v>
       </c>
       <c r="O23">
-        <v>2.220125892569229</v>
+        <v>1.200608610863952</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5070165286456643</v>
+        <v>1.31418913859136</v>
       </c>
       <c r="C24">
-        <v>0.2453936681977211</v>
+        <v>0.1410423344425737</v>
       </c>
       <c r="D24">
-        <v>0.04557270418114001</v>
+        <v>0.1111625850433171</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6589200082112114</v>
+        <v>0.4425337069395781</v>
       </c>
       <c r="G24">
-        <v>0.4938010850492844</v>
+        <v>0.3085705649979644</v>
       </c>
       <c r="H24">
-        <v>0.6396768250687117</v>
+        <v>0.2595654713385969</v>
       </c>
       <c r="I24">
-        <v>0.6718321470325535</v>
+        <v>0.2882627690394735</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3440096523068803</v>
+        <v>1.122095139696995</v>
       </c>
       <c r="L24">
-        <v>0.3202396116955413</v>
+        <v>0.3038289954934612</v>
       </c>
       <c r="M24">
-        <v>0.1808218009067843</v>
+        <v>0.3227316871629995</v>
       </c>
       <c r="N24">
-        <v>1.531002999772902</v>
+        <v>0.6730702938600839</v>
       </c>
       <c r="O24">
-        <v>2.229641101582217</v>
+        <v>1.147052955779927</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4370928946807453</v>
+        <v>1.077305411856713</v>
       </c>
       <c r="C25">
-        <v>0.2454942563075306</v>
+        <v>0.1400990149196488</v>
       </c>
       <c r="D25">
-        <v>0.03970093190125823</v>
+        <v>0.0934589512390076</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6566756020651852</v>
+        <v>0.4032611611367756</v>
       </c>
       <c r="G25">
-        <v>0.4950286456136652</v>
+        <v>0.2874399364871394</v>
       </c>
       <c r="H25">
-        <v>0.6455054801584907</v>
+        <v>0.2581641040965081</v>
       </c>
       <c r="I25">
-        <v>0.6797381612890909</v>
+        <v>0.289079706202152</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2834909661684719</v>
+        <v>0.929123623491023</v>
       </c>
       <c r="L25">
-        <v>0.3120275302355111</v>
+        <v>0.2617113927485946</v>
       </c>
       <c r="M25">
-        <v>0.1655424708212614</v>
+        <v>0.2659862436040328</v>
       </c>
       <c r="N25">
-        <v>1.555765892145253</v>
+        <v>0.7292910917335327</v>
       </c>
       <c r="O25">
-        <v>2.244077176522623</v>
+        <v>1.098796622778849</v>
       </c>
     </row>
   </sheetData>
